--- a/Carborough Downs Coal Mine, Australia, M0022.xlsx
+++ b/Carborough Downs Coal Mine, Australia, M0022.xlsx
@@ -432,7 +432,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>Version: mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -538,7 +538,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Carborough Downs Coal Mine, Australia, M0022, version 'mines - January 30 (built on January 30 2026 16.19.47 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Carborough Downs Coal Mine, Australia, M0022, version 'mines - January 30 (built on February 02 2026 12.49.33 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2730,7 +2730,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2914,7 +2914,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3006,7 +3006,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3098,7 +3098,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3190,7 +3190,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3282,7 +3282,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
@@ -3374,7 +3374,7 @@
       </c>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T14" s="0" t="inlineStr">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T15" s="0" t="inlineStr">
@@ -3558,7 +3558,7 @@
       </c>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T16" s="0" t="inlineStr">
@@ -3650,7 +3650,7 @@
       </c>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T17" s="0" t="inlineStr">
@@ -3742,7 +3742,7 @@
       </c>
       <c r="S18" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T18" s="0" t="inlineStr">
@@ -3834,7 +3834,7 @@
       </c>
       <c r="S19" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T19" s="0" t="inlineStr">
@@ -3926,7 +3926,7 @@
       </c>
       <c r="S20" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T20" s="0" t="inlineStr">
@@ -4018,7 +4018,7 @@
       </c>
       <c r="S21" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T21" s="0" t="inlineStr">
@@ -4110,7 +4110,7 @@
       </c>
       <c r="S22" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T22" s="0" t="inlineStr">
@@ -4202,7 +4202,7 @@
       </c>
       <c r="S23" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T23" s="0" t="inlineStr">
@@ -4294,7 +4294,7 @@
       </c>
       <c r="S24" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T24" s="0" t="inlineStr">
@@ -4386,7 +4386,7 @@
       </c>
       <c r="S25" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T25" s="0" t="inlineStr">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="S26" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T26" s="0" t="inlineStr">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="S27" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T27" s="0" t="inlineStr">
@@ -4662,7 +4662,7 @@
       </c>
       <c r="S28" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T28" s="0" t="inlineStr">
@@ -4754,7 +4754,7 @@
       </c>
       <c r="S29" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T29" s="0" t="inlineStr">
@@ -4846,7 +4846,7 @@
       </c>
       <c r="S30" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T30" s="0" t="inlineStr">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="S31" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T31" s="0" t="inlineStr">
@@ -5030,7 +5030,7 @@
       </c>
       <c r="S32" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T32" s="0" t="inlineStr">

--- a/Carborough Downs Coal Mine, Australia, M0022.xlsx
+++ b/Carborough Downs Coal Mine, Australia, M0022.xlsx
@@ -432,7 +432,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>Version: mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -538,7 +538,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Carborough Downs Coal Mine, Australia, M0022, version 'mines - January 30 (built on February 02 2026 12.49.33 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Carborough Downs Coal Mine, Australia, M0022, version 'mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2730,7 +2730,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2914,7 +2914,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3006,7 +3006,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3098,7 +3098,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3190,7 +3190,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3282,7 +3282,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
@@ -3374,7 +3374,7 @@
       </c>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T14" s="0" t="inlineStr">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T15" s="0" t="inlineStr">
@@ -3558,7 +3558,7 @@
       </c>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T16" s="0" t="inlineStr">
@@ -3650,7 +3650,7 @@
       </c>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T17" s="0" t="inlineStr">
@@ -3742,7 +3742,7 @@
       </c>
       <c r="S18" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T18" s="0" t="inlineStr">
@@ -3834,7 +3834,7 @@
       </c>
       <c r="S19" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T19" s="0" t="inlineStr">
@@ -3926,7 +3926,7 @@
       </c>
       <c r="S20" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T20" s="0" t="inlineStr">
@@ -4018,7 +4018,7 @@
       </c>
       <c r="S21" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T21" s="0" t="inlineStr">
@@ -4110,7 +4110,7 @@
       </c>
       <c r="S22" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T22" s="0" t="inlineStr">
@@ -4202,7 +4202,7 @@
       </c>
       <c r="S23" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T23" s="0" t="inlineStr">
@@ -4294,7 +4294,7 @@
       </c>
       <c r="S24" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T24" s="0" t="inlineStr">
@@ -4386,7 +4386,7 @@
       </c>
       <c r="S25" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T25" s="0" t="inlineStr">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="S26" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T26" s="0" t="inlineStr">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="S27" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T27" s="0" t="inlineStr">
@@ -4662,7 +4662,7 @@
       </c>
       <c r="S28" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T28" s="0" t="inlineStr">
@@ -4754,7 +4754,7 @@
       </c>
       <c r="S29" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T29" s="0" t="inlineStr">
@@ -4846,7 +4846,7 @@
       </c>
       <c r="S30" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T30" s="0" t="inlineStr">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="S31" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T31" s="0" t="inlineStr">
@@ -5030,7 +5030,7 @@
       </c>
       <c r="S32" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T32" s="0" t="inlineStr">

--- a/Carborough Downs Coal Mine, Australia, M0022.xlsx
+++ b/Carborough Downs Coal Mine, Australia, M0022.xlsx
@@ -432,7 +432,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Version: Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -538,7 +538,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Carborough Downs Coal Mine, Australia, M0022, version 'mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Carborough Downs Coal Mine, Australia, M0022, version 'Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2730,7 +2730,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2914,7 +2914,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3006,7 +3006,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3098,7 +3098,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3190,7 +3190,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3282,7 +3282,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
@@ -3374,7 +3374,7 @@
       </c>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T14" s="0" t="inlineStr">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T15" s="0" t="inlineStr">
@@ -3558,7 +3558,7 @@
       </c>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T16" s="0" t="inlineStr">
@@ -3650,7 +3650,7 @@
       </c>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T17" s="0" t="inlineStr">
@@ -3742,7 +3742,7 @@
       </c>
       <c r="S18" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T18" s="0" t="inlineStr">
@@ -3834,7 +3834,7 @@
       </c>
       <c r="S19" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T19" s="0" t="inlineStr">
@@ -3926,7 +3926,7 @@
       </c>
       <c r="S20" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T20" s="0" t="inlineStr">
@@ -4018,7 +4018,7 @@
       </c>
       <c r="S21" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T21" s="0" t="inlineStr">
@@ -4110,7 +4110,7 @@
       </c>
       <c r="S22" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T22" s="0" t="inlineStr">
@@ -4202,7 +4202,7 @@
       </c>
       <c r="S23" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T23" s="0" t="inlineStr">
@@ -4294,7 +4294,7 @@
       </c>
       <c r="S24" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T24" s="0" t="inlineStr">
@@ -4386,7 +4386,7 @@
       </c>
       <c r="S25" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T25" s="0" t="inlineStr">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="S26" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T26" s="0" t="inlineStr">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="S27" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T27" s="0" t="inlineStr">
@@ -4662,7 +4662,7 @@
       </c>
       <c r="S28" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T28" s="0" t="inlineStr">
@@ -4754,7 +4754,7 @@
       </c>
       <c r="S29" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T29" s="0" t="inlineStr">
@@ -4846,7 +4846,7 @@
       </c>
       <c r="S30" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T30" s="0" t="inlineStr">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="S31" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T31" s="0" t="inlineStr">
@@ -5030,7 +5030,7 @@
       </c>
       <c r="S32" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T32" s="0" t="inlineStr">

--- a/Carborough Downs Coal Mine, Australia, M0022.xlsx
+++ b/Carborough Downs Coal Mine, Australia, M0022.xlsx
@@ -432,7 +432,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Version: Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -538,7 +538,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Carborough Downs Coal Mine, Australia, M0022, version 'Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Carborough Downs Coal Mine, Australia, M0022, version 'Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2730,7 +2730,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2914,7 +2914,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3006,7 +3006,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3098,7 +3098,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3190,7 +3190,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3282,7 +3282,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
@@ -3374,7 +3374,7 @@
       </c>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T14" s="0" t="inlineStr">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T15" s="0" t="inlineStr">
@@ -3558,7 +3558,7 @@
       </c>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T16" s="0" t="inlineStr">
@@ -3650,7 +3650,7 @@
       </c>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T17" s="0" t="inlineStr">
@@ -3742,7 +3742,7 @@
       </c>
       <c r="S18" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T18" s="0" t="inlineStr">
@@ -3834,7 +3834,7 @@
       </c>
       <c r="S19" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T19" s="0" t="inlineStr">
@@ -3926,7 +3926,7 @@
       </c>
       <c r="S20" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T20" s="0" t="inlineStr">
@@ -4018,7 +4018,7 @@
       </c>
       <c r="S21" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T21" s="0" t="inlineStr">
@@ -4110,7 +4110,7 @@
       </c>
       <c r="S22" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T22" s="0" t="inlineStr">
@@ -4202,7 +4202,7 @@
       </c>
       <c r="S23" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T23" s="0" t="inlineStr">
@@ -4294,7 +4294,7 @@
       </c>
       <c r="S24" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T24" s="0" t="inlineStr">
@@ -4386,7 +4386,7 @@
       </c>
       <c r="S25" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T25" s="0" t="inlineStr">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="S26" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T26" s="0" t="inlineStr">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="S27" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T27" s="0" t="inlineStr">
@@ -4662,7 +4662,7 @@
       </c>
       <c r="S28" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T28" s="0" t="inlineStr">
@@ -4754,7 +4754,7 @@
       </c>
       <c r="S29" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T29" s="0" t="inlineStr">
@@ -4846,7 +4846,7 @@
       </c>
       <c r="S30" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T30" s="0" t="inlineStr">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="S31" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T31" s="0" t="inlineStr">
@@ -5030,7 +5030,7 @@
       </c>
       <c r="S32" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T32" s="0" t="inlineStr">
